--- a/TP1/Analise Erros.xlsx
+++ b/TP1/Analise Erros.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silam\OneDrive\Desktop\Mestrado\GA\Trabalhos projeto\FICHEIROS do TP I-20210922\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\Mestrado\GA\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9750" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Exclusao Precisao" sheetId="1" r:id="rId1"/>
     <sheet name="Exclusao Local" sheetId="2" r:id="rId2"/>
+    <sheet name="Precisao EMQ" sheetId="3" r:id="rId3"/>
+    <sheet name="Precisao Parametros" sheetId="4" r:id="rId4"/>
+    <sheet name="Exactidao" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>119 pontos (sem exclusoes)</t>
   </si>
@@ -118,19 +121,133 @@
   </si>
   <si>
     <t>Spread 20</t>
+  </si>
+  <si>
+    <t>σ0</t>
+  </si>
+  <si>
+    <t>σp</t>
+  </si>
+  <si>
+    <t>σx</t>
+  </si>
+  <si>
+    <t>σy</t>
+  </si>
+  <si>
+    <t>σz</t>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Θ1</t>
+    </r>
+  </si>
+  <si>
+    <t>σΘ2</t>
+  </si>
+  <si>
+    <t>σΘ3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>Δx</t>
+  </si>
+  <si>
+    <t>ΔS1</t>
+  </si>
+  <si>
+    <t>Δy</t>
+  </si>
+  <si>
+    <t>Δz</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+  </si>
+  <si>
+    <t>θ1</t>
+  </si>
+  <si>
+    <t>θ2</t>
+  </si>
+  <si>
+    <t>θ3</t>
+  </si>
+  <si>
+    <t>ΔS2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,8 +270,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +556,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1467,7 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="K16">
-        <v>-0.39</v>
+        <v>-0.23899999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1445,4 +1563,178 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>